--- a/로스트아크/데이터테이블/SkillEffect_Param_Table(수정필요).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Param_Table(수정필요).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD6F45-EAC4-4DF3-94AA-CE20C29D1680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F88F5-A6CD-4D7A-81AB-951248533F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>param_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연가창식: 은하유성탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +84,6 @@
   </si>
   <si>
     <t>상태 이상 면역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>param_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -469,6 +461,14 @@
   </si>
   <si>
     <t>immune_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_param_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_param_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,34 +1157,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,21 +1193,6 @@
     <xf numFmtId="177" fontId="9" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="9" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,6 +1201,24 @@
     </xf>
     <xf numFmtId="177" fontId="9" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,7 +1547,7 @@
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1563,13 +1563,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1577,13 +1577,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1591,13 +1591,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -1627,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -1642,13 +1642,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -1657,11 +1657,11 @@
         <v>3</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -1760,8 +1760,8 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34:E35"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1769,8 +1769,8 @@
     <col min="1" max="1" width="15.8984375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.69921875" style="7" customWidth="1"/>
@@ -1781,20 +1781,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>16</v>
+      <c r="A1" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1811,17 +1811,17 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>43</v>
+      <c r="A2" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="16">
         <v>3050000</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="16">
         <v>50</v>
@@ -1841,13 +1841,13 @@
       <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="66"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="16">
         <v>3050000</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="16">
         <v>3</v>
@@ -1867,15 +1867,15 @@
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="66"/>
-      <c r="B4" s="58" t="s">
-        <v>44</v>
+      <c r="A4" s="69"/>
+      <c r="B4" s="66" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="16">
         <v>3050001</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="16">
         <v>80</v>
@@ -1895,13 +1895,13 @@
       <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="67"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="16">
         <v>3050001</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="16">
         <v>1</v>
@@ -1921,17 +1921,17 @@
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>43</v>
+      <c r="A6" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="16">
         <v>3050010</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="16">
         <v>30</v>
@@ -1951,13 +1951,13 @@
       <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="67"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="16">
         <v>3050010</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
@@ -1977,14 +1977,14 @@
       <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>33</v>
+      <c r="A8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="16"/>
@@ -2003,17 +2003,17 @@
       <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>39</v>
+      <c r="A9" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="16">
         <v>3051800</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="16">
         <v>2</v>
@@ -2033,13 +2033,13 @@
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="66"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="16">
         <v>3051800</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="16">
         <v>6</v>
@@ -2059,15 +2059,15 @@
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="66"/>
-      <c r="B11" s="58" t="s">
-        <v>43</v>
+      <c r="A11" s="69"/>
+      <c r="B11" s="66" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="16">
         <v>3051801</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="16">
         <v>727</v>
@@ -2087,13 +2087,13 @@
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="66"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="16">
         <v>3051801</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
@@ -2113,13 +2113,13 @@
       <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="66"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="16">
         <v>3051801</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="16">
         <v>29</v>
@@ -2139,13 +2139,13 @@
       <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="67"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="16">
         <v>3051801</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
@@ -2165,17 +2165,17 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>39</v>
+      <c r="A15" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="16">
         <v>3051810</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="16">
         <v>2</v>
@@ -2195,13 +2195,13 @@
       <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="66"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="16">
         <v>3051810</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="16">
         <v>6</v>
@@ -2221,15 +2221,15 @@
       <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="66"/>
-      <c r="B17" s="58" t="s">
-        <v>43</v>
+      <c r="A17" s="69"/>
+      <c r="B17" s="66" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="16">
         <v>3051811</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="16">
         <v>727</v>
@@ -2249,13 +2249,13 @@
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="66"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="16">
         <v>3051811</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
@@ -2275,13 +2275,13 @@
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="16">
         <v>3051811</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="16">
         <v>29</v>
@@ -2301,13 +2301,13 @@
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="67"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="16">
         <v>3051811</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -2327,14 +2327,14 @@
       <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>33</v>
+      <c r="A21" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="16"/>
@@ -2353,17 +2353,17 @@
       <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>43</v>
+      <c r="A22" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="16">
         <v>3052500</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="16">
         <v>577</v>
@@ -2383,13 +2383,13 @@
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="66"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="16">
         <v>3052500</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="16">
         <v>1</v>
@@ -2409,13 +2409,13 @@
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="66"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="16">
         <v>3052500</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="16">
         <v>41</v>
@@ -2435,15 +2435,15 @@
       <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="66"/>
-      <c r="B25" s="58" t="s">
-        <v>62</v>
+      <c r="A25" s="69"/>
+      <c r="B25" s="66" t="s">
+        <v>60</v>
       </c>
       <c r="C25" s="16">
         <v>3052501</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="16">
         <v>1153</v>
@@ -2463,13 +2463,13 @@
       <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="66"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="16">
         <v>3052501</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="16">
         <v>1</v>
@@ -2489,13 +2489,13 @@
       <c r="R26" s="12"/>
     </row>
     <row r="27" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="67"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="16">
         <v>3052501</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" s="16">
         <v>41</v>
@@ -2515,17 +2515,17 @@
       <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>43</v>
+      <c r="A28" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>41</v>
       </c>
       <c r="C28" s="16">
         <v>3052510</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="16">
         <v>577</v>
@@ -2545,13 +2545,13 @@
       <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="66"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="16">
         <v>3052510</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="16">
         <v>1</v>
@@ -2571,13 +2571,13 @@
       <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="66"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="16">
         <v>3052510</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" s="16">
         <v>41</v>
@@ -2597,15 +2597,15 @@
       <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="66"/>
-      <c r="B31" s="58" t="s">
-        <v>63</v>
+      <c r="A31" s="69"/>
+      <c r="B31" s="66" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="16">
         <v>3052511</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" s="16">
         <v>1153</v>
@@ -2625,13 +2625,13 @@
       <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="66"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="16">
         <v>3052511</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" s="16">
         <v>1</v>
@@ -2651,13 +2651,13 @@
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="67"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="16">
         <v>3052511</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E33" s="16">
         <v>41</v>
@@ -2677,20 +2677,20 @@
       <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>20</v>
+      <c r="A34" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>18</v>
       </c>
       <c r="C34" s="16">
         <v>3052600</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="16"/>
@@ -2707,18 +2707,18 @@
       <c r="R34" s="12"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="70"/>
-      <c r="B35" s="55" t="s">
-        <v>12</v>
+      <c r="A35" s="64"/>
+      <c r="B35" s="52" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="16">
         <v>3052601</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="16"/>
@@ -2735,15 +2735,15 @@
       <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="70"/>
-      <c r="B36" s="55" t="s">
-        <v>21</v>
+      <c r="A36" s="64"/>
+      <c r="B36" s="52" t="s">
+        <v>19</v>
       </c>
       <c r="C36" s="16">
         <v>3052602</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E36" s="16">
         <v>1023</v>
@@ -2763,15 +2763,15 @@
       <c r="R36" s="12"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="70"/>
-      <c r="B37" s="61" t="s">
-        <v>34</v>
+      <c r="A37" s="64"/>
+      <c r="B37" s="60" t="s">
+        <v>32</v>
       </c>
       <c r="C37" s="16">
         <v>3052603</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E37" s="16">
         <v>5315</v>
@@ -2791,13 +2791,13 @@
       <c r="R37" s="12"/>
     </row>
     <row r="38" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="70"/>
-      <c r="B38" s="62"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="16">
         <v>3052603</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38" s="16">
         <v>1</v>
@@ -2817,13 +2817,13 @@
       <c r="R38" s="12"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="70"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="16">
         <v>3052603</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E39" s="16">
         <v>21</v>
@@ -2843,15 +2843,15 @@
       <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="70"/>
-      <c r="B40" s="61" t="s">
-        <v>45</v>
+      <c r="A40" s="64"/>
+      <c r="B40" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="16">
         <v>3052604</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E40" s="16">
         <v>10633</v>
@@ -2871,13 +2871,13 @@
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="70"/>
-      <c r="B41" s="62"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="16">
         <v>3052604</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E41" s="16">
         <v>2</v>
@@ -2897,13 +2897,13 @@
       <c r="R41" s="12"/>
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="70"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="16">
         <v>3052604</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E42" s="16">
         <v>10</v>
@@ -2923,15 +2923,15 @@
       <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="70"/>
-      <c r="B43" s="61" t="s">
-        <v>46</v>
+      <c r="A43" s="64"/>
+      <c r="B43" s="60" t="s">
+        <v>44</v>
       </c>
       <c r="C43" s="16">
         <v>3052605</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E43" s="16">
         <v>6910</v>
@@ -2951,13 +2951,13 @@
       <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="70"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="16">
         <v>3052605</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E44" s="16">
         <v>2</v>
@@ -2977,13 +2977,13 @@
       <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="70"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="16">
         <v>3052605</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" s="16">
         <v>10</v>
@@ -3003,15 +3003,15 @@
       <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="70"/>
-      <c r="B46" s="61" t="s">
-        <v>47</v>
+      <c r="A46" s="64"/>
+      <c r="B46" s="60" t="s">
+        <v>45</v>
       </c>
       <c r="C46" s="16">
         <v>3052606</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E46" s="16">
         <v>6377</v>
@@ -3031,13 +3031,13 @@
       <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="70"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="16">
         <v>3052606</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E47" s="16">
         <v>2</v>
@@ -3057,13 +3057,13 @@
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="70"/>
-      <c r="B48" s="63"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="16">
         <v>3052606</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E48" s="16">
         <v>10</v>
@@ -3083,9 +3083,9 @@
       <c r="R48" s="12"/>
     </row>
     <row r="49" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="70"/>
-      <c r="B49" s="55" t="s">
-        <v>37</v>
+      <c r="A49" s="64"/>
+      <c r="B49" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="C49" s="16">
         <v>3052607</v>
@@ -3111,9 +3111,9 @@
       <c r="R49" s="12"/>
     </row>
     <row r="50" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="71"/>
-      <c r="B50" s="55" t="s">
-        <v>38</v>
+      <c r="A50" s="65"/>
+      <c r="B50" s="52" t="s">
+        <v>36</v>
       </c>
       <c r="C50" s="16">
         <v>3052608</v>
@@ -3139,11 +3139,11 @@
       <c r="R50" s="12"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>23</v>
+      <c r="A51" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>21</v>
       </c>
       <c r="C51" s="16">
         <v>3052700</v>
@@ -3169,9 +3169,9 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="70"/>
-      <c r="B52" s="55" t="s">
-        <v>24</v>
+      <c r="A52" s="64"/>
+      <c r="B52" s="52" t="s">
+        <v>22</v>
       </c>
       <c r="C52" s="16">
         <v>3052701</v>
@@ -3197,15 +3197,15 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="70"/>
-      <c r="B53" s="61" t="s">
-        <v>28</v>
+      <c r="A53" s="64"/>
+      <c r="B53" s="60" t="s">
+        <v>26</v>
       </c>
       <c r="C53" s="16">
         <v>3052702</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E53" s="16">
         <v>2785</v>
@@ -3225,13 +3225,13 @@
       <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="70"/>
-      <c r="B54" s="62"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="16">
         <v>3052702</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E54" s="16">
         <v>2</v>
@@ -3251,13 +3251,13 @@
       <c r="R54" s="12"/>
     </row>
     <row r="55" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="70"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="16">
         <v>3052702</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E55" s="16">
         <v>5</v>
@@ -3277,9 +3277,9 @@
       <c r="R55" s="12"/>
     </row>
     <row r="56" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="70"/>
-      <c r="B56" s="55" t="s">
-        <v>25</v>
+      <c r="A56" s="64"/>
+      <c r="B56" s="52" t="s">
+        <v>23</v>
       </c>
       <c r="C56" s="16">
         <v>3052703</v>
@@ -3305,15 +3305,15 @@
       <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="70"/>
-      <c r="B57" s="61" t="s">
-        <v>29</v>
+      <c r="A57" s="64"/>
+      <c r="B57" s="60" t="s">
+        <v>27</v>
       </c>
       <c r="C57" s="16">
         <v>3052704</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E57" s="16">
         <v>4453</v>
@@ -3333,13 +3333,13 @@
       <c r="R57" s="12"/>
     </row>
     <row r="58" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="70"/>
-      <c r="B58" s="62"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="16">
         <v>3052704</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E58" s="16">
         <v>5</v>
@@ -3359,13 +3359,13 @@
       <c r="R58" s="12"/>
     </row>
     <row r="59" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="70"/>
-      <c r="B59" s="63"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="62"/>
       <c r="C59" s="16">
         <v>3052704</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E59" s="16">
         <v>5</v>
@@ -3385,15 +3385,15 @@
       <c r="R59" s="12"/>
     </row>
     <row r="60" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="70"/>
-      <c r="B60" s="61" t="s">
-        <v>30</v>
+      <c r="A60" s="64"/>
+      <c r="B60" s="60" t="s">
+        <v>28</v>
       </c>
       <c r="C60" s="16">
         <v>3052705</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E60" s="16">
         <v>2785</v>
@@ -3413,13 +3413,13 @@
       <c r="R60" s="12"/>
     </row>
     <row r="61" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="70"/>
-      <c r="B61" s="62"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="16">
         <v>3052705</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E61" s="16">
         <v>8</v>
@@ -3439,13 +3439,13 @@
       <c r="R61" s="12"/>
     </row>
     <row r="62" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="70"/>
-      <c r="B62" s="63"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="62"/>
       <c r="C62" s="16">
         <v>3052705</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E62" s="16">
         <v>5</v>
@@ -3465,15 +3465,15 @@
       <c r="R62" s="12"/>
     </row>
     <row r="63" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="70"/>
-      <c r="B63" s="61" t="s">
-        <v>31</v>
+      <c r="A63" s="64"/>
+      <c r="B63" s="60" t="s">
+        <v>29</v>
       </c>
       <c r="C63" s="16">
         <v>3052706</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E63" s="16">
         <v>5571</v>
@@ -3482,13 +3482,13 @@
       <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="70"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="16">
         <v>3052706</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E64" s="16">
         <v>1</v>
@@ -3497,13 +3497,13 @@
       <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="70"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="62"/>
       <c r="C65" s="16">
         <v>3052706</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E65" s="16">
         <v>5</v>
@@ -3512,9 +3512,9 @@
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="70"/>
-      <c r="B66" s="55" t="s">
-        <v>26</v>
+      <c r="A66" s="64"/>
+      <c r="B66" s="52" t="s">
+        <v>24</v>
       </c>
       <c r="C66" s="16">
         <v>3052707</v>
@@ -3529,9 +3529,9 @@
       <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="71"/>
-      <c r="B67" s="55" t="s">
-        <v>27</v>
+      <c r="A67" s="65"/>
+      <c r="B67" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="C67" s="16">
         <v>3052708</v>
@@ -3587,16 +3587,7 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A51:A67"/>
-    <mergeCell ref="A34:A50"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:B24"/>
@@ -3613,7 +3604,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A34:A50"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A51:A67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
